--- a/Frequencia/MAF261.xlsx
+++ b/Frequencia/MAF261.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="65">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -678,9 +678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -875,7 +875,9 @@
       <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -911,7 +913,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -941,7 +943,9 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -981,7 +985,7 @@
       </c>
       <c r="AO3" s="9">
         <f t="shared" ref="AO3:AO28" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
@@ -1003,7 +1007,9 @@
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -1039,7 +1045,7 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
@@ -1065,7 +1071,9 @@
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -1101,7 +1109,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
@@ -1127,7 +1135,9 @@
       <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -1163,7 +1173,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
@@ -1189,7 +1199,9 @@
       <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1229,7 +1241,7 @@
       </c>
       <c r="AO7" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
@@ -1251,7 +1263,9 @@
       <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1291,7 +1305,7 @@
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
@@ -1313,7 +1327,9 @@
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -1349,7 +1365,7 @@
       <c r="AM9" s="9"/>
       <c r="AN9" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
@@ -1375,7 +1391,9 @@
       <c r="E10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1411,7 +1429,7 @@
       <c r="AM10" s="9"/>
       <c r="AN10" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
@@ -1437,7 +1455,9 @@
       <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1477,7 +1497,7 @@
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
@@ -1499,7 +1519,9 @@
       <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1535,7 +1557,7 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
@@ -1561,7 +1583,9 @@
       <c r="E13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1597,7 +1621,7 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
@@ -1623,7 +1647,9 @@
       <c r="E14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1659,7 +1685,7 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
@@ -1685,7 +1711,9 @@
       <c r="E15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1721,7 +1749,7 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
@@ -1747,7 +1775,9 @@
       <c r="E16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1783,7 +1813,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
@@ -1809,7 +1839,9 @@
       <c r="E17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1845,7 +1877,7 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
@@ -1871,7 +1903,9 @@
       <c r="E18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1907,7 +1941,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
@@ -1933,7 +1967,9 @@
       <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1969,7 +2005,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
@@ -1995,7 +2031,9 @@
       <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -2031,7 +2069,7 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
@@ -2057,7 +2095,9 @@
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -2097,7 +2137,7 @@
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
@@ -2119,7 +2159,9 @@
       <c r="E22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2155,7 +2197,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
@@ -2181,7 +2223,9 @@
       <c r="E23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -2217,7 +2261,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
@@ -2243,7 +2287,9 @@
       <c r="E24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -2279,7 +2325,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
@@ -2305,7 +2351,9 @@
       <c r="E25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -2341,7 +2389,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
@@ -2367,7 +2415,9 @@
       <c r="E26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -2407,7 +2457,7 @@
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
@@ -2429,7 +2479,9 @@
       <c r="E27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -2465,7 +2517,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
@@ -2491,7 +2543,9 @@
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -2527,7 +2581,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>

--- a/Frequencia/MAF261.xlsx
+++ b/Frequencia/MAF261.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="67">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>3188     </t>
+  </si>
+  <si>
+    <t>Nicolle Veríssima Leite dos Santos</t>
+  </si>
+  <si>
+    <t>João Pedro da Silva</t>
   </si>
 </sst>
 </file>
@@ -676,11 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR28"/>
+  <dimension ref="A1:AR30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -878,8 +884,12 @@
       <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -913,11 +923,11 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1" t="s">
@@ -946,8 +956,12 @@
       <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -985,7 +999,7 @@
       </c>
       <c r="AO3" s="9">
         <f t="shared" ref="AO3:AO28" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
@@ -1010,8 +1024,12 @@
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -1045,7 +1063,7 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
@@ -1074,8 +1092,12 @@
       <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -1109,7 +1131,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
@@ -1138,8 +1160,12 @@
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -1173,11 +1199,11 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
@@ -1202,8 +1228,12 @@
       <c r="F7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1241,7 +1271,7 @@
       </c>
       <c r="AO7" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
@@ -1266,8 +1296,12 @@
       <c r="F8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1305,7 +1339,7 @@
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
@@ -1330,8 +1364,12 @@
       <c r="F9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -1365,7 +1403,7 @@
       <c r="AM9" s="9"/>
       <c r="AN9" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
@@ -1394,8 +1432,12 @@
       <c r="F10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1429,7 +1471,7 @@
       <c r="AM10" s="9"/>
       <c r="AN10" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
@@ -1458,8 +1500,12 @@
       <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1493,11 +1539,11 @@
       <c r="AM11" s="9"/>
       <c r="AN11" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
@@ -1522,8 +1568,12 @@
       <c r="F12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -1557,11 +1607,11 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -1586,8 +1636,12 @@
       <c r="F13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -1621,11 +1675,11 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -1650,8 +1704,12 @@
       <c r="F14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -1685,7 +1743,7 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
@@ -1714,8 +1772,12 @@
       <c r="F15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1749,7 +1811,7 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
@@ -1778,8 +1840,12 @@
       <c r="F16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1813,7 +1879,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
@@ -1842,8 +1908,12 @@
       <c r="F17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -1877,7 +1947,7 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
@@ -1906,8 +1976,12 @@
       <c r="F18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1941,7 +2015,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
@@ -1970,8 +2044,12 @@
       <c r="F19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -2005,11 +2083,11 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
@@ -2034,8 +2112,12 @@
       <c r="F20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -2069,7 +2151,7 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
@@ -2098,8 +2180,12 @@
       <c r="F21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -2133,7 +2219,7 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
@@ -2162,8 +2248,12 @@
       <c r="F22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -2197,7 +2287,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
@@ -2226,8 +2316,12 @@
       <c r="F23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -2261,7 +2355,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
@@ -2290,8 +2384,12 @@
       <c r="F24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -2325,7 +2423,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
@@ -2354,8 +2452,12 @@
       <c r="F25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -2389,7 +2491,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
@@ -2418,8 +2520,12 @@
       <c r="F26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -2453,11 +2559,11 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
@@ -2482,8 +2588,12 @@
       <c r="F27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -2517,7 +2627,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
@@ -2546,8 +2656,12 @@
       <c r="F28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -2581,7 +2695,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>
@@ -2590,6 +2704,34 @@
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="10">
+        <v>3166</v>
+      </c>
+      <c r="C29" s="10">
+        <v>104</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="10">
+        <v>3192</v>
+      </c>
+      <c r="C30" s="10">
+        <v>104</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Frequencia/MAF261.xlsx
+++ b/Frequencia/MAF261.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="67">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -265,7 +265,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,6 +358,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,8 +698,8 @@
   <dimension ref="A1:AR30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H31" sqref="H31"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -694,7 +707,9 @@
     <col min="1" max="1" width="82.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="39" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="39" width="20.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="16" style="5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.140625" style="5"/>
@@ -730,7 +745,7 @@
         <f t="shared" si="0"/>
         <v>43333</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="12">
         <f t="shared" si="0"/>
         <v>43335</v>
       </c>
@@ -890,8 +905,10 @@
       <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -923,7 +940,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -962,8 +979,10 @@
       <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -999,7 +1018,7 @@
       </c>
       <c r="AO3" s="9">
         <f t="shared" ref="AO3:AO28" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
@@ -1030,8 +1049,10 @@
       <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -1063,7 +1084,7 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
@@ -1098,8 +1119,10 @@
       <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -1131,7 +1154,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
@@ -1166,8 +1189,10 @@
       <c r="H6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -1199,7 +1224,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
@@ -1234,8 +1259,10 @@
       <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -1271,7 +1298,7 @@
       </c>
       <c r="AO7" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
@@ -1302,8 +1329,10 @@
       <c r="H8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -1339,7 +1368,7 @@
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
@@ -1370,8 +1399,10 @@
       <c r="H9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -1403,7 +1434,7 @@
       <c r="AM9" s="9"/>
       <c r="AN9" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
@@ -1438,8 +1469,10 @@
       <c r="H10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -1471,7 +1504,7 @@
       <c r="AM10" s="9"/>
       <c r="AN10" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
@@ -1506,8 +1539,10 @@
       <c r="H11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -1539,7 +1574,7 @@
       <c r="AM11" s="9"/>
       <c r="AN11" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
@@ -1574,8 +1609,10 @@
       <c r="H12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -1611,7 +1648,7 @@
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
@@ -1642,8 +1679,10 @@
       <c r="H13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -1679,7 +1718,7 @@
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -1710,8 +1749,10 @@
       <c r="H14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -1743,7 +1784,7 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
@@ -1778,8 +1819,10 @@
       <c r="H15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -1811,7 +1854,7 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
@@ -1846,8 +1889,10 @@
       <c r="H16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -1879,7 +1924,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
@@ -1914,8 +1959,10 @@
       <c r="H17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -1947,7 +1994,7 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
@@ -1982,8 +2029,10 @@
       <c r="H18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -2015,7 +2064,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
@@ -2050,8 +2099,10 @@
       <c r="H19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2083,7 +2134,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
@@ -2118,8 +2169,10 @@
       <c r="H20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -2155,7 +2208,7 @@
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -2186,8 +2239,10 @@
       <c r="H21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -2219,7 +2274,7 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
@@ -2254,8 +2309,10 @@
       <c r="H22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -2287,7 +2344,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
@@ -2322,8 +2379,10 @@
       <c r="H23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -2355,7 +2414,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
@@ -2390,8 +2449,10 @@
       <c r="H24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -2423,7 +2484,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
@@ -2458,8 +2519,10 @@
       <c r="H25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -2491,7 +2554,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
@@ -2526,8 +2589,10 @@
       <c r="H26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -2559,7 +2624,7 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
@@ -2594,8 +2659,10 @@
       <c r="H27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -2627,7 +2694,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
@@ -2662,8 +2729,10 @@
       <c r="H28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -2695,7 +2764,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>
@@ -2718,6 +2787,9 @@
       <c r="H29" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="J29" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
@@ -2730,6 +2802,9 @@
         <v>104</v>
       </c>
       <c r="H30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Frequencia/MAF261.xlsx
+++ b/Frequencia/MAF261.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="67">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -355,9 +355,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,6 +362,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,8 +698,8 @@
   <dimension ref="A1:AR30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J31" sqref="J31"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -708,7 +708,7 @@
     <col min="2" max="2" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="39" width="20.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="16" style="5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="15" style="5" bestFit="1" customWidth="1"/>
@@ -745,7 +745,7 @@
         <f t="shared" si="0"/>
         <v>43333</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <f t="shared" si="0"/>
         <v>43335</v>
       </c>
@@ -875,10 +875,10 @@
         <v>4</v>
       </c>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="11"/>
+      <c r="AR1" s="14"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -905,11 +905,13 @@
       <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -944,7 +946,7 @@
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1" t="s">
@@ -979,11 +981,13 @@
       <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
@@ -1018,7 +1022,7 @@
       </c>
       <c r="AO3" s="9">
         <f t="shared" ref="AO3:AO28" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
@@ -1049,11 +1053,13 @@
       <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -1084,7 +1090,7 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
@@ -1119,11 +1125,13 @@
       <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1154,7 +1162,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
@@ -1189,11 +1197,13 @@
       <c r="H6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1224,7 +1234,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
@@ -1259,11 +1269,13 @@
       <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1298,7 +1310,7 @@
       </c>
       <c r="AO7" s="9">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
@@ -1329,11 +1341,13 @@
       <c r="H8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1368,7 +1382,7 @@
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
@@ -1399,11 +1413,13 @@
       <c r="H9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1434,7 +1450,7 @@
       <c r="AM9" s="9"/>
       <c r="AN9" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
@@ -1469,11 +1485,13 @@
       <c r="H10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1504,7 +1522,7 @@
       <c r="AM10" s="9"/>
       <c r="AN10" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
@@ -1539,11 +1557,13 @@
       <c r="H11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1574,7 +1594,7 @@
       <c r="AM11" s="9"/>
       <c r="AN11" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
@@ -1609,11 +1629,13 @@
       <c r="H12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -1644,7 +1666,7 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
@@ -1679,11 +1701,13 @@
       <c r="H13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -1714,7 +1738,7 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
@@ -1749,11 +1773,13 @@
       <c r="H14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -1788,7 +1814,7 @@
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -1819,11 +1845,13 @@
       <c r="H15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -1854,7 +1882,7 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
@@ -1889,11 +1917,13 @@
       <c r="H16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -1924,7 +1954,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
@@ -1959,11 +1989,13 @@
       <c r="H17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -1994,7 +2026,7 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
@@ -2029,11 +2061,13 @@
       <c r="H18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -2064,7 +2098,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
@@ -2099,11 +2133,13 @@
       <c r="H19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -2134,7 +2170,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
@@ -2169,11 +2205,13 @@
       <c r="H20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -2204,7 +2242,7 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
@@ -2239,11 +2277,13 @@
       <c r="H21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="12"/>
       <c r="J21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -2274,7 +2314,7 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
@@ -2309,11 +2349,13 @@
       <c r="H22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -2344,7 +2386,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
@@ -2379,11 +2421,13 @@
       <c r="H23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -2414,7 +2458,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
@@ -2449,11 +2493,13 @@
       <c r="H24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -2484,7 +2530,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
@@ -2519,11 +2565,13 @@
       <c r="H25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="12"/>
       <c r="J25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -2554,7 +2602,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
@@ -2589,11 +2637,13 @@
       <c r="H26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -2624,7 +2674,7 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
@@ -2659,11 +2709,13 @@
       <c r="H27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -2694,7 +2746,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
@@ -2729,11 +2781,13 @@
       <c r="H28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -2764,7 +2818,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>
@@ -2790,6 +2844,9 @@
       <c r="J29" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K29" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
@@ -2806,6 +2863,9 @@
       </c>
       <c r="J30" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Frequencia/MAF261.xlsx
+++ b/Frequencia/MAF261.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="67">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -698,8 +698,8 @@
   <dimension ref="A1:AR30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K31" sqref="K31"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -709,7 +709,9 @@
     <col min="3" max="3" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="20.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="39" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="39" width="20.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="16" style="5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.140625" style="5"/>
@@ -761,7 +763,7 @@
         <f t="shared" si="0"/>
         <v>43347</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="11">
         <f t="shared" si="0"/>
         <v>43349</v>
       </c>
@@ -912,9 +914,13 @@
       <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="L2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -942,7 +948,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -988,9 +994,13 @@
       <c r="K3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="L3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
@@ -1022,7 +1032,7 @@
       </c>
       <c r="AO3" s="9">
         <f t="shared" ref="AO3:AO28" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
@@ -1060,9 +1070,13 @@
       <c r="K4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="L4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
@@ -1090,7 +1104,7 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
@@ -1132,9 +1146,13 @@
       <c r="K5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
@@ -1162,7 +1180,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
@@ -1204,9 +1222,13 @@
       <c r="K6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="L6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
@@ -1234,11 +1256,11 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
@@ -1276,9 +1298,13 @@
       <c r="K7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="L7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -1310,7 +1336,7 @@
       </c>
       <c r="AO7" s="9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
@@ -1348,9 +1374,13 @@
       <c r="K8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="L8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -1382,7 +1412,7 @@
       </c>
       <c r="AO8" s="9">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
@@ -1420,9 +1450,13 @@
       <c r="K9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -1450,7 +1484,7 @@
       <c r="AM9" s="9"/>
       <c r="AN9" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
@@ -1492,9 +1526,13 @@
       <c r="K10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -1522,7 +1560,7 @@
       <c r="AM10" s="9"/>
       <c r="AN10" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
@@ -1564,9 +1602,13 @@
       <c r="K11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -1594,7 +1636,7 @@
       <c r="AM11" s="9"/>
       <c r="AN11" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
@@ -1636,9 +1678,13 @@
       <c r="K12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="L12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -1666,7 +1712,7 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
@@ -1708,9 +1754,13 @@
       <c r="K13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -1738,11 +1788,11 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
@@ -1780,9 +1830,13 @@
       <c r="K14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="L14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -1810,7 +1864,7 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
@@ -1852,9 +1906,13 @@
       <c r="K15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -1882,7 +1940,7 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
@@ -1924,9 +1982,13 @@
       <c r="K16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="L16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -1954,11 +2016,11 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
@@ -1996,9 +2058,13 @@
       <c r="K17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="L17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -2026,7 +2092,7 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
@@ -2068,9 +2134,13 @@
       <c r="K18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="L18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -2098,7 +2168,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
@@ -2140,9 +2210,13 @@
       <c r="K19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="L19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -2170,7 +2244,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
@@ -2212,9 +2286,13 @@
       <c r="K20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="L20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -2242,11 +2320,11 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -2284,9 +2362,13 @@
       <c r="K21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="L21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -2314,7 +2396,7 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
@@ -2356,9 +2438,13 @@
       <c r="K22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="L22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -2386,11 +2472,11 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
@@ -2428,9 +2514,13 @@
       <c r="K23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="L23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -2458,11 +2548,11 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
@@ -2500,9 +2590,13 @@
       <c r="K24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="L24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
@@ -2530,11 +2624,11 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
@@ -2572,9 +2666,13 @@
       <c r="K25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="L25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -2602,7 +2700,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
@@ -2644,9 +2742,13 @@
       <c r="K26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -2674,7 +2776,7 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
@@ -2716,9 +2818,13 @@
       <c r="K27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -2746,11 +2852,11 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
@@ -2788,9 +2894,13 @@
       <c r="K28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
+      <c r="L28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
@@ -2818,7 +2928,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>
@@ -2847,6 +2957,12 @@
       <c r="K29" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="L29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
@@ -2866,6 +2982,12 @@
       </c>
       <c r="K30" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Frequencia/MAF261.xlsx
+++ b/Frequencia/MAF261.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="67">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -265,7 +265,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,6 +371,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,8 +720,8 @@
   <dimension ref="A1:AR30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N31" sqref="N31"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -921,7 +943,9 @@
       <c r="N2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="9"/>
+      <c r="O2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -948,7 +972,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -962,81 +986,83 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:44" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9">
+      <c r="D3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18">
         <f t="shared" ref="AN3:AN28" si="1">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
         <v>2</v>
       </c>
-      <c r="AO3" s="9">
+      <c r="AO3" s="18">
         <f t="shared" ref="AO3:AO28" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
-        <v>16</v>
-      </c>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -1077,7 +1103,9 @@
       <c r="N4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="9"/>
+      <c r="O4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -1104,7 +1132,7 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
@@ -1153,7 +1181,9 @@
       <c r="N5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="9"/>
+      <c r="O5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1180,7 +1210,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
@@ -1229,7 +1259,9 @@
       <c r="N6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -1260,163 +1292,163 @@
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:44" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9">
+      <c r="D7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AO7" s="9">
+      <c r="AO7" s="18">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:44" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9">
+      <c r="D8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="9">
+      <c r="AO8" s="18">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1457,7 +1489,9 @@
       <c r="N9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="O9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -1484,7 +1518,7 @@
       <c r="AM9" s="9"/>
       <c r="AN9" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
@@ -1533,7 +1567,9 @@
       <c r="N10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="O10" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
@@ -1564,7 +1600,7 @@
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
@@ -1609,7 +1645,9 @@
       <c r="N11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="9"/>
+      <c r="O11" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
@@ -1636,7 +1674,7 @@
       <c r="AM11" s="9"/>
       <c r="AN11" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
@@ -1685,7 +1723,9 @@
       <c r="N12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="9"/>
+      <c r="O12" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -1712,7 +1752,7 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
@@ -1761,7 +1801,9 @@
       <c r="N13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="9"/>
+      <c r="O13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -1788,7 +1830,7 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
@@ -1837,7 +1879,9 @@
       <c r="N14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
@@ -1864,7 +1908,7 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
@@ -1913,7 +1957,9 @@
       <c r="N15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="O15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
@@ -1940,7 +1986,7 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
@@ -1989,7 +2035,9 @@
       <c r="N16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -2016,7 +2064,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
@@ -2065,7 +2113,9 @@
       <c r="N17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="9"/>
+      <c r="O17" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -2092,7 +2142,7 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
@@ -2141,7 +2191,9 @@
       <c r="N18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O18" s="9"/>
+      <c r="O18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
@@ -2168,7 +2220,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
@@ -2217,7 +2269,9 @@
       <c r="N19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="9"/>
+      <c r="O19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
@@ -2244,7 +2298,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
@@ -2293,7 +2347,9 @@
       <c r="N20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="9"/>
+      <c r="O20" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -2324,7 +2380,7 @@
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -2369,7 +2425,9 @@
       <c r="N21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -2400,7 +2458,7 @@
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
@@ -2445,7 +2503,9 @@
       <c r="N22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O22" s="9"/>
+      <c r="O22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -2472,7 +2532,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
@@ -2521,7 +2581,9 @@
       <c r="N23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="9"/>
+      <c r="O23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
@@ -2548,7 +2610,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
@@ -2597,7 +2659,9 @@
       <c r="N24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="9"/>
+      <c r="O24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -2624,7 +2688,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
@@ -2673,7 +2737,9 @@
       <c r="N25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="9"/>
+      <c r="O25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -2700,7 +2766,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
@@ -2749,7 +2815,9 @@
       <c r="N26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="9"/>
+      <c r="O26" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -2776,7 +2844,7 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
@@ -2825,7 +2893,9 @@
       <c r="N27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="9"/>
+      <c r="O27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
@@ -2852,7 +2922,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
@@ -2901,7 +2971,9 @@
       <c r="N28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O28" s="9"/>
+      <c r="O28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
@@ -2928,7 +3000,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>
@@ -2963,6 +3035,9 @@
       <c r="N29" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="O29" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
@@ -2987,6 +3062,9 @@
         <v>9</v>
       </c>
       <c r="N30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Frequencia/MAF261.xlsx
+++ b/Frequencia/MAF261.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="67">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -368,9 +368,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -387,6 +384,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,8 +720,8 @@
   <dimension ref="A1:AR30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O31" sqref="O31"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -899,10 +899,10 @@
         <v>4</v>
       </c>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="14" t="s">
+      <c r="AQ1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="14"/>
+      <c r="AR1" s="20"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -949,7 +949,9 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="S2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
@@ -976,7 +978,7 @@
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1" t="s">
@@ -986,83 +988,83 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:44" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18">
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17">
         <f t="shared" ref="AN3:AN28" si="1">2*COUNTIF(D3:AM3,"="&amp;$AQ$2)</f>
         <v>2</v>
       </c>
-      <c r="AO3" s="18">
+      <c r="AO3" s="17">
         <f t="shared" ref="AO3:AO28" si="2">2*COUNTIF(D3:AM3,"="&amp;$AR$2)</f>
         <v>18</v>
       </c>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -1109,7 +1111,9 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="S4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -1132,7 +1136,7 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
@@ -1187,7 +1191,9 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="S5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -1214,7 +1220,7 @@
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
@@ -1265,7 +1271,9 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="S6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -1292,163 +1300,163 @@
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:44" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:44" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18">
+      <c r="D7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AO7" s="18">
+      <c r="AO7" s="17">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
     </row>
-    <row r="8" spans="1:44" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:44" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18">
+      <c r="D8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="18">
+      <c r="AO8" s="17">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1495,7 +1503,9 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="S9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
@@ -1518,7 +1528,7 @@
       <c r="AM9" s="9"/>
       <c r="AN9" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
@@ -1573,7 +1583,9 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -1596,7 +1608,7 @@
       <c r="AM10" s="9"/>
       <c r="AN10" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
@@ -1651,7 +1663,9 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
+      <c r="S11" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -1674,7 +1688,7 @@
       <c r="AM11" s="9"/>
       <c r="AN11" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
@@ -1729,7 +1743,9 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="S12" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
@@ -1752,7 +1768,7 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
@@ -1807,7 +1823,9 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
+      <c r="S13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -1830,7 +1848,7 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
@@ -1885,7 +1903,9 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -1912,7 +1932,7 @@
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -1963,7 +1983,9 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
@@ -1990,7 +2012,7 @@
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
@@ -2041,7 +2063,9 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
+      <c r="S16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -2064,7 +2088,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
@@ -2119,7 +2143,9 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+      <c r="S17" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
@@ -2142,7 +2168,7 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
@@ -2197,7 +2223,9 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
+      <c r="S18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
@@ -2220,7 +2248,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
@@ -2275,7 +2303,9 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
+      <c r="S19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
@@ -2298,7 +2328,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
@@ -2353,7 +2383,9 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
@@ -2376,7 +2408,7 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
@@ -2431,7 +2463,9 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
+      <c r="S21" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
@@ -2454,7 +2488,7 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
@@ -2509,7 +2543,9 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
@@ -2532,7 +2568,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
@@ -2587,7 +2623,9 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
+      <c r="S23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
@@ -2610,7 +2648,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
@@ -2665,7 +2703,9 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
@@ -2688,7 +2728,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
@@ -2743,7 +2783,9 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
+      <c r="S25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -2766,7 +2808,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
@@ -2821,7 +2863,9 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
+      <c r="S26" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
@@ -2844,7 +2888,7 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
@@ -2899,7 +2943,9 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
+      <c r="S27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -2922,7 +2968,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
@@ -2977,7 +3023,9 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
+      <c r="S28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
@@ -3000,7 +3048,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>
@@ -3038,6 +3086,9 @@
       <c r="O29" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="S29" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
@@ -3065,6 +3116,9 @@
         <v>9</v>
       </c>
       <c r="O30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Frequencia/MAF261.xlsx
+++ b/Frequencia/MAF261.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="67">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -720,8 +720,8 @@
   <dimension ref="A1:AR30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S31" sqref="S31"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -952,8 +952,12 @@
       <c r="S2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
+      <c r="T2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
@@ -974,7 +978,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
@@ -1114,8 +1118,12 @@
       <c r="S4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="T4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
@@ -1136,7 +1144,7 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
@@ -1194,8 +1202,12 @@
       <c r="S5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="T5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
@@ -1216,11 +1228,11 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
@@ -1274,8 +1286,12 @@
       <c r="S6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="T6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
@@ -1296,7 +1312,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
@@ -1506,8 +1522,12 @@
       <c r="S9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="T9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
@@ -1528,7 +1548,7 @@
       <c r="AM9" s="9"/>
       <c r="AN9" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
@@ -1586,8 +1606,12 @@
       <c r="S10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
+      <c r="T10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
@@ -1608,7 +1632,7 @@
       <c r="AM10" s="9"/>
       <c r="AN10" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
@@ -1666,8 +1690,12 @@
       <c r="S11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+      <c r="T11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
@@ -1688,7 +1716,7 @@
       <c r="AM11" s="9"/>
       <c r="AN11" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
@@ -1746,8 +1774,12 @@
       <c r="S12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
+      <c r="T12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -1768,7 +1800,7 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
@@ -1826,8 +1858,12 @@
       <c r="S13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
+      <c r="T13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
@@ -1848,7 +1884,7 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
@@ -1906,8 +1942,12 @@
       <c r="S14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
+      <c r="T14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
@@ -1928,7 +1968,7 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
@@ -1986,8 +2026,12 @@
       <c r="S15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
+      <c r="T15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -2008,7 +2052,7 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
@@ -2066,8 +2110,12 @@
       <c r="S16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
+      <c r="T16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
@@ -2088,7 +2136,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
@@ -2146,8 +2194,12 @@
       <c r="S17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
+      <c r="T17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -2168,7 +2220,7 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
@@ -2226,8 +2278,12 @@
       <c r="S18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="T18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="9"/>
@@ -2248,7 +2304,7 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
@@ -2306,8 +2362,12 @@
       <c r="S19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
+      <c r="T19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
@@ -2328,7 +2388,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
@@ -2386,8 +2446,12 @@
       <c r="S20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
+      <c r="T20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
@@ -2408,7 +2472,7 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
@@ -2466,8 +2530,12 @@
       <c r="S21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
+      <c r="T21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
@@ -2488,7 +2556,7 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
@@ -2546,8 +2614,12 @@
       <c r="S22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
+      <c r="T22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
@@ -2568,7 +2640,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
@@ -2626,8 +2698,12 @@
       <c r="S23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
+      <c r="T23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
@@ -2648,7 +2724,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
@@ -2706,8 +2782,12 @@
       <c r="S24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
+      <c r="T24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
@@ -2728,7 +2808,7 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
@@ -2786,8 +2866,12 @@
       <c r="S25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
+      <c r="T25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
@@ -2808,7 +2892,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
@@ -2866,8 +2950,12 @@
       <c r="S26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
+      <c r="T26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
@@ -2888,11 +2976,11 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
@@ -2946,8 +3034,12 @@
       <c r="S27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
+      <c r="T27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
@@ -2968,7 +3060,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
@@ -3026,8 +3118,12 @@
       <c r="S28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
+      <c r="T28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -3048,7 +3144,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>
@@ -3089,6 +3185,12 @@
       <c r="S29" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="T29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
@@ -3120,6 +3222,12 @@
       </c>
       <c r="S30" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Frequencia/MAF261.xlsx
+++ b/Frequencia/MAF261.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="67">
   <si>
     <t>Nome do Aluno</t>
   </si>
@@ -720,8 +720,8 @@
   <dimension ref="A1:AR30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U31" sqref="U31"/>
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -960,10 +960,14 @@
       </c>
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
+      <c r="X2" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
+      <c r="AA2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
@@ -978,11 +982,11 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AQ$2)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO2" s="9">
         <f>2*COUNTIF(D2:AM2,"="&amp;$AR$2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1" t="s">
@@ -1126,10 +1130,14 @@
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
+      <c r="X4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
+      <c r="AA4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
@@ -1144,7 +1152,7 @@
       <c r="AM4" s="9"/>
       <c r="AN4" s="9">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="2"/>
@@ -1210,10 +1218,14 @@
       </c>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
+      <c r="X5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
+      <c r="AA5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
@@ -1228,7 +1240,7 @@
       <c r="AM5" s="9"/>
       <c r="AN5" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="2"/>
@@ -1294,10 +1306,14 @@
       </c>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
+      <c r="X6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
+      <c r="AA6" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
@@ -1312,7 +1328,7 @@
       <c r="AM6" s="9"/>
       <c r="AN6" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO6" s="9">
         <f t="shared" si="2"/>
@@ -1530,10 +1546,14 @@
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
+      <c r="X9" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
+      <c r="AA9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
@@ -1548,11 +1568,11 @@
       <c r="AM9" s="9"/>
       <c r="AN9" s="9">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO9" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
@@ -1614,10 +1634,14 @@
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
+      <c r="X10" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
+      <c r="AA10" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
@@ -1632,7 +1656,7 @@
       <c r="AM10" s="9"/>
       <c r="AN10" s="9">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO10" s="9">
         <f t="shared" si="2"/>
@@ -1698,10 +1722,14 @@
       </c>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
+      <c r="X11" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
+      <c r="AA11" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
@@ -1716,11 +1744,11 @@
       <c r="AM11" s="9"/>
       <c r="AN11" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO11" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
@@ -1782,10 +1810,14 @@
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
+      <c r="X12" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -1800,7 +1832,7 @@
       <c r="AM12" s="9"/>
       <c r="AN12" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="2"/>
@@ -1866,10 +1898,14 @@
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
+      <c r="X13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -1884,7 +1920,7 @@
       <c r="AM13" s="9"/>
       <c r="AN13" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO13" s="9">
         <f t="shared" si="2"/>
@@ -1950,10 +1986,14 @@
       </c>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
+      <c r="X14" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
+      <c r="AA14" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -1968,11 +2008,11 @@
       <c r="AM14" s="9"/>
       <c r="AN14" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO14" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
@@ -2034,10 +2074,14 @@
       </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
+      <c r="X15" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -2052,11 +2096,11 @@
       <c r="AM15" s="9"/>
       <c r="AN15" s="9">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO15" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
@@ -2118,10 +2162,14 @@
       </c>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
+      <c r="X16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -2136,7 +2184,7 @@
       <c r="AM16" s="9"/>
       <c r="AN16" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO16" s="9">
         <f t="shared" si="2"/>
@@ -2202,10 +2250,14 @@
       </c>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
+      <c r="X17" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -2220,7 +2272,7 @@
       <c r="AM17" s="9"/>
       <c r="AN17" s="9">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO17" s="9">
         <f t="shared" si="2"/>
@@ -2286,10 +2338,14 @@
       </c>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
+      <c r="X18" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
+      <c r="AA18" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -2304,11 +2360,11 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO18" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
@@ -2370,10 +2426,14 @@
       </c>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
+      <c r="X19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2388,7 +2448,7 @@
       <c r="AM19" s="9"/>
       <c r="AN19" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO19" s="9">
         <f t="shared" si="2"/>
@@ -2454,10 +2514,14 @@
       </c>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
+      <c r="X20" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
+      <c r="AA20" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -2472,11 +2536,11 @@
       <c r="AM20" s="9"/>
       <c r="AN20" s="9">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO20" s="9">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
@@ -2538,10 +2602,14 @@
       </c>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
+      <c r="X21" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
+      <c r="AA21" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2556,7 +2624,7 @@
       <c r="AM21" s="9"/>
       <c r="AN21" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO21" s="9">
         <f t="shared" si="2"/>
@@ -2622,10 +2690,14 @@
       </c>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
+      <c r="X22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
+      <c r="AA22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -2640,7 +2712,7 @@
       <c r="AM22" s="9"/>
       <c r="AN22" s="9">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO22" s="9">
         <f t="shared" si="2"/>
@@ -2706,10 +2778,14 @@
       </c>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
+      <c r="X23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
+      <c r="AA23" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -2724,7 +2800,7 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AO23" s="9">
         <f t="shared" si="2"/>
@@ -2790,10 +2866,14 @@
       </c>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
+      <c r="X24" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
+      <c r="AA24" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
@@ -2808,11 +2888,11 @@
       <c r="AM24" s="9"/>
       <c r="AN24" s="9">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO24" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
@@ -2874,10 +2954,14 @@
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
+      <c r="X25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
+      <c r="AA25" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
@@ -2892,7 +2976,7 @@
       <c r="AM25" s="9"/>
       <c r="AN25" s="9">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO25" s="9">
         <f t="shared" si="2"/>
@@ -2958,10 +3042,14 @@
       </c>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
+      <c r="X26" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
+      <c r="AA26" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
@@ -2976,11 +3064,11 @@
       <c r="AM26" s="9"/>
       <c r="AN26" s="9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO26" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
@@ -3042,10 +3130,14 @@
       </c>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
+      <c r="X27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
+      <c r="AA27" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
@@ -3060,7 +3152,7 @@
       <c r="AM27" s="9"/>
       <c r="AN27" s="9">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO27" s="9">
         <f t="shared" si="2"/>
@@ -3126,10 +3218,14 @@
       </c>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
+      <c r="X28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
+      <c r="AA28" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
@@ -3144,7 +3240,7 @@
       <c r="AM28" s="9"/>
       <c r="AN28" s="9">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO28" s="9">
         <f t="shared" si="2"/>
@@ -3191,6 +3287,12 @@
       <c r="U29" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="X29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
@@ -3228,6 +3330,12 @@
       </c>
       <c r="U30" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
